--- a/BalanceSheet/HBAN_bal.xlsx
+++ b/BalanceSheet/HBAN_bal.xlsx
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1250500.0</v>
+        <v>1250000.0</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>750500.0</v>
@@ -3969,7 +3969,7 @@
         <v>10682000000.0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>11317000000.0</v>
+        <v>13539000000.0</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>7998000000.0</v>
@@ -4096,7 +4096,7 @@
         <v>12622000000.0</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>12688000000.0</v>
+        <v>14910000000.0</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>9874000000.0</v>
